--- a/supplemental_files_for_ms/sample_metadata.xlsx
+++ b/supplemental_files_for_ms/sample_metadata.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddayan/FRA/premature_migration/Rogue_Half-Pounder/half-pounder/supplemental_files_for_ms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddayan/FRA/half_pounder_2023/supplemental_files_for_ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A288077-0B70-7F45-9BE3-6E3E34ADB796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2D14DC-BE80-B441-B902-2A42C7B9C550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sample_metadata_2021" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="cover" sheetId="3" r:id="rId1"/>
+    <sheet name="sample_metadata_2021" sheetId="1" r:id="rId2"/>
+    <sheet name="readme" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4013" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4022" uniqueCount="1091">
   <si>
     <t>Sample</t>
   </si>
@@ -3267,13 +3268,271 @@
   </si>
   <si>
     <t>winter</t>
+  </si>
+  <si>
+    <r>
+      <t>Genetic diversity within late-summer run and half-pounder steelhead (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oncorhynchus mykiss)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in the Rogue River, Oregon</t>
+    </r>
+  </si>
+  <si>
+    <t>Conservation Genetics</t>
+  </si>
+  <si>
+    <r>
+      <t>David I Dayan</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, Steve Mazur</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, Laura J Green</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, Andrew J Wells</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, Marc A Johnson</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, Daniel J Van Dyke</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, Peter A Samarin</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, Ryan D Battleson</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, Kathleen G O’Malley</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> State Fisheries Genomics Laboratory, Coastal Oregon Marine Experiment Station, Department of Fisheries, Wildlife and Conservation Sciences, Hatfield Marine Science Center, Oregon State University, Newport, OR, USA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Native Fish Conservation and Recovery, Oregon Department of Fish and Wildlife, Salem, OR, USA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oregon Department of Fish and Wildlife, Gold Beach, OR, USA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Rogue Watershed District, Oregon Department of Fish and Wildlife, Central Point, OR, USA</t>
+    </r>
+  </si>
+  <si>
+    <t>* Corresponding author, email: david.dayan@oregonstate.edu, ORCID ID: 0000-0001-5001-4062</t>
+  </si>
+  <si>
+    <t>Online Resource 3: Sample Metadata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3407,6 +3666,55 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3715,7 +4023,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3758,8 +4066,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3767,8 +4076,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3802,6 +4133,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -4121,10 +4453,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3F573C-3762-B345-97DC-D3AF9D71E907}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" display="mailto:david.dayan@oregonstate.edu" xr:uid="{19C3B30D-BC1E-7048-84FE-3A8E6086B6CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G971" sqref="G971"/>
     </sheetView>
   </sheetViews>
@@ -21162,18 +21597,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -21181,7 +21616,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>1075</v>
       </c>
       <c r="B2" t="s">
@@ -21189,7 +21624,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>1077</v>
       </c>
       <c r="B3" t="s">
@@ -21197,12 +21632,21 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>1079</v>
       </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
